--- a/data/trans_orig/P14C24_2015-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C24_2015-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD290376-5D23-4F50-84EE-0A141A987D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA936A9D-79BE-4864-BF59-B641981E1A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{16A169E3-6A43-4A06-9AFA-810F6790714D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{874E7F62-607E-4B83-990E-A53E67367344}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>57,58%</t>
   </si>
   <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
   </si>
   <si>
     <t>65,12%</t>
   </si>
   <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
   </si>
   <si>
     <t>64,09%</t>
   </si>
   <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>23,47%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
   </si>
   <si>
     <t>28,47%</t>
   </si>
   <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
   </si>
   <si>
     <t>27,78%</t>
   </si>
   <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,28 +134,28 @@
     <t>18,96%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
   </si>
   <si>
     <t>6,41%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>8,13%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,232 +167,232 @@
     <t>63,07%</t>
   </si>
   <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
   </si>
   <si>
     <t>68,01%</t>
   </si>
   <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
   </si>
   <si>
     <t>66,78%</t>
   </si>
   <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
   </si>
   <si>
     <t>31,94%</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
   </si>
   <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
   </si>
   <si>
     <t>24,04%</t>
   </si>
   <si>
-    <t>18,05%</t>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
   </si>
   <si>
     <t>31,86%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
   </si>
   <si>
     <t>8,65%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
+    <t>13,33%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -807,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1F9B82-8C33-4326-BD89-167E61B2799A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5739805-9DB7-4D90-93EE-5444197EF656}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1636,7 +1636,7 @@
         <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1651,13 +1651,13 @@
         <v>5014</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -1666,10 +1666,10 @@
         <v>19647</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>115</v>

--- a/data/trans_orig/P14C24_2015-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C24_2015-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA936A9D-79BE-4864-BF59-B641981E1A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D708B820-E42E-425B-86D0-D195382701AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{874E7F62-607E-4B83-990E-A53E67367344}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6DEB69A1-979F-4509-A564-A00D1002BD71}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="120">
-  <si>
-    <t>Población según el tiempo de diagnóstico del trastornos de ansiedad en 2015 (Tasa respuesta: 4,11%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
+  <si>
+    <t>Población según el tiempo de diagnóstico del trastornos de ansiedad en 2016 (Tasa respuesta: 4,11%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>57,58%</t>
   </si>
   <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
   </si>
   <si>
     <t>65,12%</t>
   </si>
   <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
   </si>
   <si>
     <t>64,09%</t>
   </si>
   <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>23,47%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
   </si>
   <si>
     <t>28,47%</t>
   </si>
   <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
   </si>
   <si>
     <t>27,78%</t>
   </si>
   <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,28 +134,28 @@
     <t>18,96%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
   </si>
   <si>
     <t>6,41%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
   </si>
   <si>
     <t>8,13%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,55 +167,55 @@
     <t>63,07%</t>
   </si>
   <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
   </si>
   <si>
     <t>68,01%</t>
   </si>
   <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
   </si>
   <si>
     <t>66,78%</t>
   </si>
   <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
   </si>
   <si>
     <t>31,94%</t>
   </si>
   <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
   </si>
   <si>
     <t>21,43%</t>
   </si>
   <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
   </si>
   <si>
     <t>24,04%</t>
   </si>
   <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
   </si>
   <si>
     <t>4,99%</t>
@@ -224,25 +224,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>15,46%</t>
+    <t>15,27%</t>
   </si>
   <si>
     <t>10,57%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
   </si>
   <si>
     <t>9,18%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -251,7 +251,7 @@
     <t>75,57%</t>
   </si>
   <si>
-    <t>29,18%</t>
+    <t>33,09%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -260,43 +260,43 @@
     <t>43,92%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
   </si>
   <si>
     <t>59,34%</t>
   </si>
   <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
   </si>
   <si>
     <t>24,43%</t>
   </si>
   <si>
-    <t>70,82%</t>
+    <t>66,91%</t>
   </si>
   <si>
     <t>45,94%</t>
   </si>
   <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
   </si>
   <si>
     <t>35,46%</t>
   </si>
   <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
   </si>
   <si>
     <t>0%</t>
@@ -308,91 +308,94 @@
     <t>10,14%</t>
   </si>
   <si>
-    <t>42,78%</t>
+    <t>42,5%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>23,23%</t>
+    <t>23,4%</t>
   </si>
   <si>
     <t>63,25%</t>
   </si>
   <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
   </si>
   <si>
     <t>65,78%</t>
   </si>
   <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
   </si>
   <si>
     <t>65,23%</t>
   </si>
   <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
   </si>
   <si>
     <t>28,73%</t>
   </si>
   <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
   </si>
   <si>
     <t>25,57%</t>
   </si>
   <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
   </si>
   <si>
     <t>26,26%</t>
   </si>
   <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
   </si>
   <si>
     <t>8,65%</t>
   </si>
   <si>
-    <t>13,33%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -807,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5739805-9DB7-4D90-93EE-5444197EF656}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BEDFB3-A081-49F9-9772-9331A091E0B6}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1669,10 +1672,10 @@
         <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -1681,13 +1684,13 @@
         <v>24661</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1743,7 +1746,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
